--- a/indicator_definitions.xlsx
+++ b/indicator_definitions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leathing\Documents\L_data2\Extension\DSPG Housing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\OneDrive\Documents\GitHub\CED-Housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A6AA55-E87C-4D42-AF07-BFEDF13A5BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="134">
   <si>
     <t>Group</t>
   </si>
@@ -60,9 +61,6 @@
   </si>
   <si>
     <t>Assistance Program</t>
-  </si>
-  <si>
-    <t>HCVPercentPerHouseHold</t>
   </si>
   <si>
     <t>Place</t>
@@ -434,7 +432,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -746,26 +744,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -805,28 +805,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -834,31 +837,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -866,851 +869,819 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
       <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
         <v>14</v>
       </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
         <v>14</v>
       </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
         <v>14</v>
       </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
         <v>14</v>
       </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
         <v>14</v>
       </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="H21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
         <v>14</v>
       </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="H22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
         <v>86</v>
       </c>
-      <c r="E20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" t="s">
         <v>86</v>
       </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" t="s">
-        <v>104</v>
-      </c>
-      <c r="J23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C27" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s">
-        <v>120</v>
-      </c>
-      <c r="I27" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" t="s">
-        <v>125</v>
-      </c>
-      <c r="I28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/indicator_definitions.xlsx
+++ b/indicator_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\OneDrive\Documents\GitHub\CED-Housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A6AA55-E87C-4D42-AF07-BFEDF13A5BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99835B4-C1E7-4FBE-8043-702AD584B741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="134">
   <si>
     <t>Group</t>
   </si>
@@ -363,9 +363,6 @@
     <t>Rapidly rising housing prices reduce area affordability and may signal low availability of homes</t>
   </si>
   <si>
-    <t>PctChange</t>
-  </si>
-  <si>
     <t>Zillow</t>
   </si>
   <si>
@@ -427,6 +424,9 @@
   </si>
   <si>
     <t>Affordability Index</t>
+  </si>
+  <si>
+    <t>ZillowHousePriceIndex</t>
   </si>
 </sst>
 </file>
@@ -1054,6 +1054,9 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
@@ -1505,10 +1508,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
         <v>112</v>
-      </c>
-      <c r="D25" t="s">
-        <v>113</v>
       </c>
       <c r="E25" t="s">
         <v>86</v>
@@ -1520,13 +1523,13 @@
         <v>22</v>
       </c>
       <c r="H25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" t="s">
         <v>114</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>115</v>
-      </c>
-      <c r="J25" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1534,10 +1537,10 @@
         <v>99</v>
       </c>
       <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
         <v>117</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
       </c>
       <c r="D26" t="s">
         <v>37</v>
@@ -1552,13 +1555,13 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" t="s">
         <v>119</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>120</v>
-      </c>
-      <c r="J26" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1566,10 +1569,10 @@
         <v>99</v>
       </c>
       <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
         <v>122</v>
-      </c>
-      <c r="C27" t="s">
-        <v>123</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
@@ -1584,10 +1587,10 @@
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1595,10 +1598,10 @@
         <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>37</v>
@@ -1607,16 +1610,16 @@
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1624,10 +1627,10 @@
         <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
@@ -1636,16 +1639,16 @@
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1656,7 +1659,7 @@
         <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
@@ -1665,19 +1668,19 @@
         <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/indicator_definitions.xlsx
+++ b/indicator_definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\OneDrive\Documents\GitHub\CED-Housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99835B4-C1E7-4FBE-8043-702AD584B741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780CB1B3-AA32-4BA1-9152-2505DBEBFCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="139">
   <si>
     <t>Group</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Estimated percentage of units with LIHTC agreements expiring within 5 years</t>
   </si>
   <si>
-    <t>Cost-burdened homeowner percentage</t>
-  </si>
-  <si>
     <t>PercentUSDAsec515Lost5Year</t>
   </si>
   <si>
@@ -222,9 +219,6 @@
     <t>Areas with low vacancy rates offer fewer options for people seeking housing</t>
   </si>
   <si>
-    <t>TotalPercentVacant2</t>
-  </si>
-  <si>
     <t>Percentage of housing units with no occupants, recent 5-year average</t>
   </si>
   <si>
@@ -427,6 +421,27 @@
   </si>
   <si>
     <t>ZillowHousePriceIndex</t>
+  </si>
+  <si>
+    <t>Percent Sec 8 units</t>
+  </si>
+  <si>
+    <t>Total Percent Vacant for USPS Data</t>
+  </si>
+  <si>
+    <t>ACSVacancyPercentage</t>
+  </si>
+  <si>
+    <t>Housing Price Dispersion</t>
+  </si>
+  <si>
+    <t>Projected Loss of Section 8 units</t>
+  </si>
+  <si>
+    <t>ACS Vacancy Percentage</t>
+  </si>
+  <si>
+    <t>Percent Section 515 units</t>
   </si>
 </sst>
 </file>
@@ -747,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -889,6 +904,9 @@
       <c r="I4" t="s">
         <v>8</v>
       </c>
+      <c r="J4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1043,6 +1061,9 @@
       <c r="I9" t="s">
         <v>49</v>
       </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1073,7 +1094,7 @@
         <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1084,7 +1105,7 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1099,27 +1120,27 @@
         <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1131,24 +1152,27 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
         <v>60</v>
       </c>
-      <c r="I12" t="s">
-        <v>61</v>
+      <c r="J12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1160,21 +1184,21 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
         <v>63</v>
-      </c>
-      <c r="I13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -1189,24 +1213,27 @@
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1218,21 +1245,21 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -1247,27 +1274,27 @@
         <v>22</v>
       </c>
       <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s">
         <v>72</v>
-      </c>
-      <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1279,24 +1306,24 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1308,59 +1335,62 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
         <v>80</v>
-      </c>
-      <c r="I18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
         <v>42</v>
@@ -1369,24 +1399,24 @@
         <v>14</v>
       </c>
       <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" t="s">
         <v>91</v>
-      </c>
-      <c r="I20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -1401,24 +1431,24 @@
         <v>14</v>
       </c>
       <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" t="s">
         <v>96</v>
-      </c>
-      <c r="I21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
         <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
@@ -1433,24 +1463,24 @@
         <v>14</v>
       </c>
       <c r="H22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" t="s">
         <v>102</v>
-      </c>
-      <c r="I22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
         <v>37</v>
@@ -1465,27 +1495,30 @@
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="J23" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1494,27 +1527,27 @@
         <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
         <v>13</v>
@@ -1523,24 +1556,24 @@
         <v>22</v>
       </c>
       <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" t="s">
         <v>113</v>
-      </c>
-      <c r="I25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>37</v>
@@ -1555,24 +1588,24 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" t="s">
         <v>118</v>
-      </c>
-      <c r="I26" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>37</v>
@@ -1587,21 +1620,21 @@
         <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>37</v>
@@ -1610,27 +1643,27 @@
         <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
@@ -1639,27 +1672,27 @@
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
@@ -1668,19 +1701,19 @@
         <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">

--- a/indicator_definitions.xlsx
+++ b/indicator_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\OneDrive\Documents\GitHub\CED-Housing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780CB1B3-AA32-4BA1-9152-2505DBEBFCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1043FD9C-8162-4EB9-AF09-0AD66B5F39F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1300,7 +1300,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1329,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>

--- a/indicator_definitions.xlsx
+++ b/indicator_definitions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cornd\OneDrive\Documents\GitHub\CED-Housing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e053c53d61b8413/Documents/GitHub/CED-Housing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1043FD9C-8162-4EB9-AF09-0AD66B5F39F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{1043FD9C-8162-4EB9-AF09-0AD66B5F39F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DAA8AE8-812A-4DB6-885A-465D83A5615D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="139">
   <si>
     <t>Group</t>
   </si>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1299,9 +1299,6 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" t="s">
-        <v>42</v>
-      </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
